--- a/excel_file/SA12.xlsx
+++ b/excel_file/SA12.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\과제\에너지국제공동_3년차\구매\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Create_PDF_Report\excel_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="145">
   <si>
     <t>File</t>
   </si>
@@ -486,15 +486,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">목표 역률 -0.8 시험 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">목표 역률 -0.9 시험 </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">목표 역률 0.8에 대해 모든 결과에서 제조사 제시 역률 정확도인 0.01 범위 (0.79~0.81)내의 값을 보임. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">target 역률 -0.8 시험 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5857,7 +5857,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5890,7 +5890,7 @@
         <v>140</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D3">
         <v>0.8</v>
@@ -5992,7 +5992,7 @@
         <v>38</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D21">
         <v>-0.8</v>
@@ -6043,7 +6043,7 @@
         <v>44</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D30">
         <v>-0.9</v>
@@ -6131,6 +6131,7 @@
     <hyperlink ref="A38" location="spf_-900.0_100_3!A1" display="spf_-900.0_100_3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
